--- a/medicine/Handicap/À_bras_ouverts_(association)/À_bras_ouverts_(association).xlsx
+++ b/medicine/Handicap/À_bras_ouverts_(association)/À_bras_ouverts_(association).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%80_bras_ouverts_(association)</t>
+          <t>À_bras_ouverts_(association)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À Bras ouverts ou ABO est une association française, d’inspiration chrétienne, fondée en 1986[1] par Tugdual Derville. Elle organise l’accueil par des accompagnateurs bénévoles, d’enfants, d’adolescents et de jeunes adultes porteurs d’un handicap[2], pour des week-ends ou des séjours de vacances.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À Bras ouverts ou ABO est une association française, d’inspiration chrétienne, fondée en 1986 par Tugdual Derville. Elle organise l’accueil par des accompagnateurs bénévoles, d’enfants, d’adolescents et de jeunes adultes porteurs d’un handicap, pour des week-ends ou des séjours de vacances.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%80_bras_ouverts_(association)</t>
+          <t>À_bras_ouverts_(association)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Organisation et missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'idée de fonder une association liée au handicap émerge en 1982 chez Tugdual Derville lorsqu'il rencontre un enfant handicapé. L'association est fondée en 1986[3].
-Le but de l'association est triple[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'idée de fonder une association liée au handicap émerge en 1982 chez Tugdual Derville lorsqu'il rencontre un enfant handicapé. L'association est fondée en 1986.
+Le but de l'association est triple :
 soulager les parents d'enfants handicapés le temps d'un week-end.
 permettre aux enfants de vivre un temps de fête et de détente, de se faire des amis et d'avoir « leur » activité.
 ouvrir à la différence et à la dignité de la personne les accompagnateurs et les personnes croisées au cours des week-ends.
-À Bras Ouverts est organisé en 28 groupes en janvier 2020[5] et 30 groupes en décembre 2021, répartis dans douze métropoles[6] : à Angers[7], Bordeaux[8], Lille, Lyon[9], Marseille, Montpellier, Nantes, Orléans, Paris, Rennes, Rouen, Strasbourg et Toulouse. L'association est organisée en petits groupes de taille familiale afin que les accompagnateurs et les jeunes se connaissent par leur nom, les nouveaux groupes sont créés par scission et « essaimage »[10]. Un nouveau groupe ouvre à Grenoble en 2022[11].
-De juillet 2019 à juin 2020, 714 enfants ont été accueillis au moins une fois par 1 257 accompagnateurs bénévoles, sur 472 week-ends et 25 séjours d'été, tous groupes confondus[12]. Tugdual Derville estime en 2017 que 15 000 accompagnateurs sont partis avec l'association depuis sa création[3].
-L'association n'a pas de visée médicale ou pédagogique, et se concentre sur les relations entre les accompagnateurs et leur binôme handicapé[13]. Une des règles de l'association est de toujours inclure le jeune handicapé dans la conversation[14]. La devise de l'association est « être avec, faire avec » : des binômes jeune handicapé-accompagnateur sont formés au sein du groupe et les activités restent simples et festives[4], comme le coloriage, les promenades ou les repas, en s'adaptant aux jeunes. Jusqu'à sept binômes, soit quatorze personne, sont possibles lors d'un week-end[11].
+À Bras Ouverts est organisé en 28 groupes en janvier 2020 et 30 groupes en décembre 2021, répartis dans douze métropoles : à Angers, Bordeaux, Lille, Lyon, Marseille, Montpellier, Nantes, Orléans, Paris, Rennes, Rouen, Strasbourg et Toulouse. L'association est organisée en petits groupes de taille familiale afin que les accompagnateurs et les jeunes se connaissent par leur nom, les nouveaux groupes sont créés par scission et « essaimage ». Un nouveau groupe ouvre à Grenoble en 2022.
+De juillet 2019 à juin 2020, 714 enfants ont été accueillis au moins une fois par 1 257 accompagnateurs bénévoles, sur 472 week-ends et 25 séjours d'été, tous groupes confondus. Tugdual Derville estime en 2017 que 15 000 accompagnateurs sont partis avec l'association depuis sa création.
+L'association n'a pas de visée médicale ou pédagogique, et se concentre sur les relations entre les accompagnateurs et leur binôme handicapé. Une des règles de l'association est de toujours inclure le jeune handicapé dans la conversation. La devise de l'association est « être avec, faire avec » : des binômes jeune handicapé-accompagnateur sont formés au sein du groupe et les activités restent simples et festives, comme le coloriage, les promenades ou les repas, en s'adaptant aux jeunes. Jusqu'à sept binômes, soit quatorze personne, sont possibles lors d'un week-end.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%80_bras_ouverts_(association)</t>
+          <t>À_bras_ouverts_(association)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,9 +563,11 @@
           <t>Inspirations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'autres mouvements d'inspiration chrétienne accueillant des personnes handicapées sont l'Office chrétien des personnes handicapées, l'Arche et Foi et Lumière[15]. Jean Vanier et le mouvement L'Arche ont inspiré Tugdual Derville pour fonder À Bras Ouverts[16]. Le mode de fonctionnement est inspiré de Foi et Lumière[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'autres mouvements d'inspiration chrétienne accueillant des personnes handicapées sont l'Office chrétien des personnes handicapées, l'Arche et Foi et Lumière. Jean Vanier et le mouvement L'Arche ont inspiré Tugdual Derville pour fonder À Bras Ouverts. Le mode de fonctionnement est inspiré de Foi et Lumière.
 </t>
         </is>
       </c>
